--- a/Uedaが如く/仕様/ガントチャート.xlsx
+++ b/Uedaが如く/仕様/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4375E1E-29A5-44A2-B64C-D085268E6222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD19981-A83A-4A49-BF3A-AAD841FAA5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -448,13 +448,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外部ファイル</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部ファイル読み込み</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -464,6 +457,20 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーダー導入</t>
+    <rPh sb="5" eb="7">
+      <t>ドウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1514,11 +1521,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4241A-66ED-4D56-8CA5-5637D565307D}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -1785,7 +1792,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
         <v>52</v>
       </c>
@@ -1794,7 +1801,7 @@
       </c>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
         <v>67</v>
       </c>
@@ -1803,7 +1810,7 @@
       </c>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
         <v>53</v>
       </c>
@@ -1812,7 +1819,7 @@
       </c>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>56</v>
       </c>
@@ -1821,170 +1828,178 @@
       </c>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A33" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="28">
-        <v>45489</v>
+      <c r="F33" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A35" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="28">
+        <v>86</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="28">
         <v>45491</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="13" t="s">
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-    </row>
-    <row r="38" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A41" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="13" t="s">
-        <v>77</v>
-      </c>
+    <row r="43" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A44" s="24" t="s">
-        <v>78</v>
+    <row r="44" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A46" s="24"/>
+      <c r="A46" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="26" t="s">
+    <row r="47" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="1:14" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="1:14" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:14" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="27"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="27"/>
+    </row>
+    <row r="52" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-    </row>
-    <row r="53" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="25" t="s">
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L55" s="25"/>
-    </row>
-    <row r="56" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="L56" t="s">
+      <c r="L56" s="25"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="L57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="25" t="s">
+    <row r="58" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M57" s="25"/>
-    </row>
-    <row r="58" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="M58" t="s">
+      <c r="M58" s="25"/>
+    </row>
+    <row r="59" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="M59" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="25" t="s">
+    <row r="60" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="N59" s="25"/>
-    </row>
-    <row r="60" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="N60" t="s">
+      <c r="N60" s="25"/>
+    </row>
+    <row r="61" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="N61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:14" collapsed="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="1:14" collapsed="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Uedaが如く/仕様/ガントチャート.xlsx
+++ b/Uedaが如く/仕様/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD19981-A83A-4A49-BF3A-AAD841FAA5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B08CB1-B176-45C7-BC86-705E887B3C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -1521,11 +1521,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4241A-66ED-4D56-8CA5-5637D565307D}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
         <v>52</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
         <v>67</v>
       </c>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
         <v>53</v>
       </c>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>56</v>
       </c>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A33" s="24" t="s">
         <v>55</v>
       </c>
@@ -1837,169 +1837,176 @@
       </c>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:9" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G37" s="28">
         <v>45491</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="13" t="s">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A39" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A42" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
-        <v>77</v>
-      </c>
+    <row r="44" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
-        <v>78</v>
+    <row r="45" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A46" s="24" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A47" s="24"/>
+      <c r="A47" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="26" t="s">
+    <row r="48" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="1:14" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="26" t="s">
+    <row r="50" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="1:14" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="27"/>
-    </row>
-    <row r="52" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="27"/>
+    </row>
+    <row r="53" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-    </row>
-    <row r="54" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="25" t="s">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L56" s="25"/>
-    </row>
-    <row r="57" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="L57" t="s">
+      <c r="L57" s="25"/>
+    </row>
+    <row r="58" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="L58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="25" t="s">
+    <row r="59" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M58" s="25"/>
-    </row>
-    <row r="59" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="M59" t="s">
+      <c r="M59" s="25"/>
+    </row>
+    <row r="60" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="M60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="25" t="s">
+    <row r="61" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="N60" s="25"/>
-    </row>
-    <row r="61" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="N61" t="s">
+      <c r="N61" s="25"/>
+    </row>
+    <row r="62" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="N62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:14" collapsed="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:14" collapsed="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2017,17 +2024,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2262,6 +2258,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -2271,17 +2278,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2298,4 +2294,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Uedaが如く/仕様/ガントチャート.xlsx
+++ b/Uedaが如く/仕様/ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B08CB1-B176-45C7-BC86-705E887B3C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3CF2DA-9405-439B-85CC-36A6416D2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="5295" yWindow="1320" windowWidth="21600" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="コピー元" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -358,14 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7/8～7/18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7/19～8/5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>8/30～9/9</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,6 +464,18 @@
     <rPh sb="5" eb="7">
       <t>ドウニュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/8～7/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/21～8/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1521,11 +1525,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4241A-66ED-4D56-8CA5-5637D565307D}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A34" sqref="A34"/>
+      <selection pane="topRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -1562,7 +1566,7 @@
     <row r="2" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1570,7 +1574,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="6" t="s">
@@ -1642,7 +1646,7 @@
     </row>
     <row r="9" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>64</v>
@@ -1674,7 +1678,7 @@
     </row>
     <row r="13" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>64</v>
@@ -1698,7 +1702,7 @@
     </row>
     <row r="16" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="12"/>
     </row>
@@ -1839,174 +1843,182 @@
     </row>
     <row r="34" spans="1:9" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-    </row>
-    <row r="35" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A37" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="28">
-        <v>45491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="28">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="13" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
     </row>
-    <row r="43" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A43" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
-        <v>77</v>
-      </c>
+    <row r="45" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A46" s="24" t="s">
-        <v>78</v>
+    <row r="46" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A47" s="24" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A48" s="24"/>
+      <c r="A48" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
     </row>
-    <row r="49" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="1:14" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-    </row>
-    <row r="52" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="27"/>
-    </row>
-    <row r="53" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
+    <row r="49" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:14" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="27"/>
+    </row>
+    <row r="54" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-    </row>
-    <row r="57" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="25" t="s">
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="25"/>
-    </row>
-    <row r="58" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="L58" t="s">
-        <v>74</v>
-      </c>
+      <c r="L58" s="25"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="25" t="s">
+      <c r="L59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M59" s="25"/>
-    </row>
-    <row r="60" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="M60" t="s">
-        <v>75</v>
-      </c>
+      <c r="M60" s="25"/>
     </row>
     <row r="61" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="25" t="s">
+      <c r="M61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="N61" s="25"/>
-    </row>
-    <row r="62" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="N62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" collapsed="1" x14ac:dyDescent="0.4"/>
+      <c r="N62" s="25"/>
+    </row>
+    <row r="63" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="N63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" collapsed="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2024,6 +2036,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2258,17 +2281,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -2278,6 +2290,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2294,15 +2317,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>